--- a/biology/Histoire de la zoologie et de la botanique/Sylvain_Auguste_de_Marseul/Sylvain_Auguste_de_Marseul.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sylvain_Auguste_de_Marseul/Sylvain_Auguste_de_Marseul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sylvain-Augustin de Marseul est un entomologiste français, né le 21 janvier 1812 à Fougerolles-du-Plessis et mort le 16 avril 1890 à Paris.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’abbé de Marseul enseigne au Petit séminaire de Paris de 1833 à 1836 puis il dirige le noviciat de la congrégation de Notre-Dame de Sainte-Croix au Mans. En 1842, il fonde à Laval un collège puis de 1850 à 1853, il enseigne de nouveau à Paris à l'Institution Sainte-Marie, rue Bonaparte. En 1854, il quitte l'enseignement pour partir pour l'Amérique où il reste huit mois. Il y découvre l’entomologie avec John Lawrence Le Conte.
 </t>
@@ -542,11 +556,13 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’abbé de Marseul est l’auteur de nombreuses publications. Il fonde en 1864 la revue consacrée aux coléoptères et nommée L’Abeille dont il publiera 26 volumes. À sa mort, la revue sera reprise par Bedel (1849-1922) puis par Jeannel (1879-1965). L’abbé de Marseul écrit des articles sur l’histoire des débuts de l’entomologie française, parus dans la revue L’Abeille sous le titre générique des Entomologistes et de leurs écrits (1882 à 1887).
 La grande contribution de l'abbé de Marseul concerne la famille des Histeridae (Coleoptera, Histeroidea) ce qui fait de lui une figure essentielle, un maître pour les histéridologues.
-On ne peut ignorer l'importance de son Essai monographique sur la famille des Histérides suivi d'un Supplément, parus dans les Annales de la Société entomologique de France, de 1853 à 1863[1].
+On ne peut ignorer l'importance de son Essai monographique sur la famille des Histérides suivi d'un Supplément, parus dans les Annales de la Société entomologique de France, de 1853 à 1863.
 Il définit également en 1863 dans l'ordre des Coléoptères la tribu des Tropiphorini de la famille des Entiminae.
 Sa collection est conservée par le Muséum national d'histoire naturelle à Paris et sa bibliothèque par la Société entomologique de France dont il était membre depuis 1835 et dont il fut élu président en 1871.
 </t>
@@ -577,7 +593,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1839 : Éléments d'arithmétique raisonnée, à l'usage des frères de Saint-Joseph, Périsse frères, Paris et Lyon ;
 1853-1863: Essai monographique sur la famille des Histérides comprenant la description et la figure au trait des genres et des espèces, leur distribution méthodique, avec un résumé de leurs mœurs et de leur anatomie. Annales de la Société entomologique de France, (3) 1: 131-160 et 177-294 -- 1854 (3) 2: 161-311 et 525-592 -- 1954 (1853) (3) 1: 447-553. --1855 (3) 3: 83-165, 327-506 et 677-758.-- 1855 (1854) (3) 2: 671-707. -- 1856 (3) 4: 97-144, 259-283 et 549-628. -- 1857 (3) 5: 109-167 et 397-516. Suivi d'un supplément à la monographie des Histérides: 1860 (3) 8: 581-610. -- 1861 (4) 1: 141-184. -- 1861 (1860) (3) 8: 835-866. -- 1862 (4) 2: 5-48 et 437-516. -- 1862 (1861) (4) 1: 509-566. -- 1863 (1862) (4) 2: 669-720.
@@ -637,7 +655,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>René de la Perraudière (1891). Notice nécrologique sur l'abbé S.-A.de Marseul, Ann.Soc.Ent.fr: janvier 1891. Séance du 24 décembre 1890.
 Jean Lhoste (1987). Les Entomologistes français. 1750-1950. INRA Éditions : 351 p.
